--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\수업\데마\stock_proj\KRX_API\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D6D3C5D-F743-4B2D-8264-7FBE9E400FD5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06882B26-84AB-4E66-8951-AD7D0B5A4027}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="3510" windowWidth="17280" windowHeight="9030"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>종목명</t>
   </si>
@@ -54,12 +54,6 @@
     <t>현대모비스</t>
   </si>
   <si>
-    <t>LG화학</t>
-  </si>
-  <si>
-    <t>SK하이닉스</t>
-  </si>
-  <si>
     <t>삼성생명</t>
   </si>
   <si>
@@ -75,15 +69,9 @@
     <t>신한지주</t>
   </si>
   <si>
-    <t>SK텔레콤</t>
-  </si>
-  <si>
     <t>SK</t>
   </si>
   <si>
-    <t>LG생활건강</t>
-  </si>
-  <si>
     <t>삼성화재</t>
   </si>
   <si>
@@ -93,18 +81,9 @@
     <t>POSCO</t>
   </si>
   <si>
-    <t>KB금융</t>
-  </si>
-  <si>
     <t>LG</t>
   </si>
   <si>
-    <t>아모레G</t>
-  </si>
-  <si>
-    <t>SK이노베이션</t>
-  </si>
-  <si>
     <t>셀트리온</t>
   </si>
   <si>
@@ -114,21 +93,12 @@
     <t>고려아연</t>
   </si>
   <si>
-    <t>LG전자</t>
-  </si>
-  <si>
-    <t>LG디스플레이</t>
-  </si>
-  <si>
     <t>롯데케미칼</t>
   </si>
   <si>
     <t>강원랜드</t>
   </si>
   <si>
-    <t>삼성SDI</t>
-  </si>
-  <si>
     <t>한국항공우주</t>
   </si>
   <si>
@@ -165,36 +135,15 @@
     <t>현대제철</t>
   </si>
   <si>
-    <t>현대중공업</t>
-  </si>
-  <si>
     <t>코웨이</t>
   </si>
   <si>
-    <t>한화생명</t>
-  </si>
-  <si>
-    <t>우리은행</t>
-  </si>
-  <si>
-    <t>한국타이어</t>
-  </si>
-  <si>
     <t>한온시스템</t>
   </si>
   <si>
-    <t>한샘</t>
-  </si>
-  <si>
     <t>이마트</t>
   </si>
   <si>
-    <t>동부화재</t>
-  </si>
-  <si>
-    <t>CJ제일제당</t>
-  </si>
-  <si>
     <t>GS</t>
   </si>
   <si>
@@ -204,33 +153,9 @@
     <t>엔씨소프트</t>
   </si>
   <si>
-    <t>LG유플러스</t>
-  </si>
-  <si>
-    <t>한화케미칼</t>
-  </si>
-  <si>
     <t>오뚜기</t>
   </si>
   <si>
-    <t>KCC</t>
-  </si>
-  <si>
-    <t>CJ대한통운</t>
-  </si>
-  <si>
-    <t>BGF리테일</t>
-  </si>
-  <si>
-    <t>효성</t>
-  </si>
-  <si>
-    <t>GS리테일</t>
-  </si>
-  <si>
-    <t>한전KPS</t>
-  </si>
-  <si>
     <t>에스원</t>
   </si>
   <si>
@@ -240,12 +165,6 @@
     <t>한국가스공사</t>
   </si>
   <si>
-    <t>롯데제과</t>
-  </si>
-  <si>
-    <t>CJ E&amp;M</t>
-  </si>
-  <si>
     <t>현대건설</t>
   </si>
   <si>
@@ -255,83 +174,372 @@
     <t>호텔신라</t>
   </si>
   <si>
-    <t>현대해상</t>
-  </si>
-  <si>
-    <t>동서</t>
-  </si>
-  <si>
     <t>유한양행</t>
   </si>
   <si>
-    <t>한화</t>
-  </si>
-  <si>
-    <t>대우증권</t>
-  </si>
-  <si>
-    <t>현대위아</t>
-  </si>
-  <si>
-    <t>메디톡스</t>
-  </si>
-  <si>
-    <t>현대백화점</t>
-  </si>
-  <si>
-    <t>현대산업</t>
-  </si>
-  <si>
-    <t>NH투자증권</t>
-  </si>
-  <si>
-    <t>롯데칠성</t>
-  </si>
-  <si>
-    <t>농심</t>
-  </si>
-  <si>
-    <t>맥쿼리인프라</t>
-  </si>
-  <si>
     <t>한국금융지주</t>
   </si>
   <si>
-    <t>CJ CGV</t>
-  </si>
-  <si>
     <t>삼성중공업</t>
   </si>
   <si>
-    <t>바이로메드</t>
-  </si>
-  <si>
-    <t>삼립식품</t>
-  </si>
-  <si>
-    <t>현대그린푸드</t>
-  </si>
-  <si>
-    <t>LIG넥스원</t>
-  </si>
-  <si>
     <t>제일기획</t>
   </si>
   <si>
-    <t>LG이노텍</t>
-  </si>
-  <si>
     <t>신세계</t>
   </si>
   <si>
     <t>코리안리</t>
+  </si>
+  <si>
+    <t>CJ ENM</t>
+  </si>
+  <si>
+    <r>
+      <t>CJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한통운</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제일제당</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리테일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금융</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디스플레이</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생활건강</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유플러스</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이노텍</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전자</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화학</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투자증권</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이노베이션</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텔레콤</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하이닉스</t>
+    </r>
+  </si>
+  <si>
+    <t>넷마블</t>
+  </si>
+  <si>
+    <t>대림산업</t>
+  </si>
+  <si>
+    <t>대우조선해양</t>
+  </si>
+  <si>
+    <t>대한항공</t>
+  </si>
+  <si>
+    <t>더존비즈온</t>
+  </si>
+  <si>
+    <r>
+      <t>삼성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SDI</t>
+    </r>
+  </si>
+  <si>
+    <t>삼성바이오로직스</t>
+  </si>
+  <si>
+    <t>삼성엔지니어링</t>
+  </si>
+  <si>
+    <t>쌍용양회</t>
+  </si>
+  <si>
+    <t>씨젠</t>
+  </si>
+  <si>
+    <r>
+      <t>아모레</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>G</t>
+    </r>
+  </si>
+  <si>
+    <t>에이치엘비</t>
+  </si>
+  <si>
+    <t>우리금융지주</t>
+  </si>
+  <si>
+    <t>제주항공</t>
+  </si>
+  <si>
+    <t>케이엠더블유</t>
+  </si>
+  <si>
+    <t>티웨이항공</t>
+  </si>
+  <si>
+    <t>하이트진로</t>
+  </si>
+  <si>
+    <t>한진칼</t>
+  </si>
+  <si>
+    <t>쿠쿠전자</t>
+  </si>
+  <si>
+    <t>대우건설</t>
+  </si>
+  <si>
+    <t>코미팜</t>
+  </si>
+  <si>
+    <t>녹십자</t>
+  </si>
+  <si>
+    <t>동원시스템즈</t>
+  </si>
+  <si>
+    <r>
+      <t>BNK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="63"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금융지주</t>
+    </r>
+  </si>
+  <si>
+    <t>한세실업</t>
+  </si>
+  <si>
+    <t>두산중공업</t>
+  </si>
+  <si>
+    <t>한국콜마</t>
+  </si>
+  <si>
+    <t>로엔</t>
+  </si>
+  <si>
+    <t>팬오션</t>
+  </si>
+  <si>
+    <t>영풍</t>
+  </si>
+  <si>
+    <t>녹십자홀딩스</t>
+  </si>
+  <si>
+    <t>메리츠종금증권</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -352,6 +560,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
@@ -398,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -406,6 +627,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -719,11 +944,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -738,497 +963,502 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>86</v>
+      <c r="A88" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>87</v>
+      <c r="A89" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>88</v>
+      <c r="A90" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>89</v>
+      <c r="A91" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>90</v>
+      <c r="A92" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>92</v>
+      <c r="A94" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>93</v>
+      <c r="A95" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>94</v>
+      <c r="A96" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>95</v>
+      <c r="A97" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>96</v>
+      <c r="A98" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>97</v>
+      <c r="A99" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>98</v>
+      <c r="A100" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
